--- a/tables/uss_ct.xlsx
+++ b/tables/uss_ct.xlsx
@@ -193,1002 +193,1739 @@
   <numFmts count="1">
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="249">
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
+  <fonts count="433">
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1199,7 +1936,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="249">
+  <borders count="341">
     <border>
       <left/>
       <right/>
@@ -1217,6 +1954,20 @@
     <border>
       <left style="none"/>
       <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
       <top style="thin"/>
       <bottom style="none"/>
       <diagonal style="none"/>
@@ -1266,6 +2017,27 @@
     <border>
       <left style="none"/>
       <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
       <top style="thin"/>
       <bottom style="none"/>
       <diagonal style="none"/>
@@ -1329,6 +2101,27 @@
     <border>
       <left style="none"/>
       <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
       <top style="thin"/>
       <bottom style="none"/>
       <diagonal style="none"/>
@@ -1385,6 +2178,13 @@
     <border>
       <left style="none"/>
       <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
       <top style="thin"/>
       <bottom style="none"/>
       <diagonal style="none"/>
@@ -2772,6 +3572,524 @@
       <left style="none"/>
       <right style="none"/>
       <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
       <bottom style="thin"/>
       <diagonal style="none"/>
     </border>
@@ -2793,6 +4111,13 @@
       <left style="none"/>
       <right style="none"/>
       <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
       <bottom style="thin"/>
       <diagonal style="none"/>
     </border>
@@ -2821,6 +4146,13 @@
       <left style="none"/>
       <right style="none"/>
       <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
       <bottom style="thin"/>
       <diagonal style="none"/>
     </border>
@@ -2842,6 +4174,13 @@
       <left style="none"/>
       <right style="none"/>
       <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
       <bottom style="thin"/>
       <diagonal style="none"/>
     </border>
@@ -2863,6 +4202,13 @@
       <left style="none"/>
       <right style="none"/>
       <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
       <bottom style="thin"/>
       <diagonal style="none"/>
     </border>
@@ -2891,6 +4237,13 @@
       <left style="none"/>
       <right style="none"/>
       <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
       <bottom style="thin"/>
       <diagonal style="none"/>
     </border>
@@ -2912,6 +4265,13 @@
       <left style="none"/>
       <right style="none"/>
       <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
       <bottom style="thin"/>
       <diagonal style="none"/>
     </border>
@@ -2940,1005 +4300,1394 @@
       <left style="none"/>
       <right style="none"/>
       <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
       <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
       <diagonal style="none"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="249">
+  <cellXfs count="341">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="23" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="24" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="25" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="26" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="27" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="28" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="29" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="30" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="31" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="32" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="33" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="34" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="27" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="28" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="29" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="30" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="31" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="32" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="33" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="34" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="35" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="36" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="35" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="37" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="36" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="37" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="38" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="39" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="40" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="41" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="42" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="43" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="44" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="45" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="38" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="39" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="40" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="41" fillId="0" borderId="41" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="42" fillId="0" borderId="42" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="43" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="44" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="45" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="46" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="47" fillId="0" borderId="47" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="48" fillId="0" borderId="48" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="49" fillId="0" borderId="49" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="50" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="51" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="52" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="53" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="54" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="55" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="56" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="46" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="57" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="47" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="58" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="59" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="60" fillId="0" borderId="60" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="61" fillId="0" borderId="61" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="62" fillId="0" borderId="62" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="63" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="64" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="65" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="66" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="67" fillId="0" borderId="67" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="68" fillId="0" borderId="68" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="69" fillId="0" borderId="69" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="70" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="71" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="72" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="73" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="74" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="75" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="76" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="48" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="49" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="50" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="62" fillId="0" borderId="51" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="63" fillId="0" borderId="52" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="64" fillId="0" borderId="53" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="66" fillId="0" borderId="54" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="55" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="56" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="57" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="58" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="59" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="60" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="75" fillId="0" borderId="61" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="76" fillId="0" borderId="62" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="77" fillId="0" borderId="63" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="79" fillId="0" borderId="64" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="65" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="66" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="67" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="68" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="69" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="70" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="71" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="72" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="73" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="77" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="74" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="78" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="79" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="80" fillId="0" borderId="80" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="81" fillId="0" borderId="81" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="82" fillId="0" borderId="82" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="83" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="84" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="85" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="86" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="87" fillId="0" borderId="87" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="88" fillId="0" borderId="88" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="89" fillId="0" borderId="89" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="90" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="91" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="92" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="93" fillId="0" borderId="93" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="94" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="95" fillId="0" borderId="95" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="96" fillId="0" borderId="96" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="75" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="0" borderId="97" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="76" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="77" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="78" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="98" fillId="0" borderId="79" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="99" fillId="0" borderId="80" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="100" fillId="0" borderId="81" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="102" fillId="0" borderId="82" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="83" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="84" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="85" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="86" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="87" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="88" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="111" fillId="0" borderId="89" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="112" fillId="0" borderId="90" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="113" fillId="0" borderId="91" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="115" fillId="0" borderId="92" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="93" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="94" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="0" borderId="95" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="96" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="97" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="98" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="99" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="100" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="0" borderId="101" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="98" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="99" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="100" fillId="0" borderId="100" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="101" fillId="0" borderId="101" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="102" fillId="0" borderId="102" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="103" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="104" fillId="0" borderId="104" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="105" fillId="0" borderId="105" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="106" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="107" fillId="0" borderId="107" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="108" fillId="0" borderId="108" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="109" fillId="0" borderId="109" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="110" fillId="0" borderId="110" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="111" fillId="0" borderId="111" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="112" fillId="0" borderId="112" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="113" fillId="0" borderId="113" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="114" fillId="0" borderId="114" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="115" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="116" fillId="0" borderId="116" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="117" fillId="0" borderId="117" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="118" fillId="0" borderId="118" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="102" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="119" fillId="0" borderId="119" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="103" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="120" fillId="0" borderId="120" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="121" fillId="0" borderId="121" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="122" fillId="0" borderId="122" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="104" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="105" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="106" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="134" fillId="0" borderId="107" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="135" fillId="0" borderId="108" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="136" fillId="0" borderId="109" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="138" fillId="0" borderId="110" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="111" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="112" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="113" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="114" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="115" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="116" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="147" fillId="0" borderId="117" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="148" fillId="0" borderId="118" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="149" fillId="0" borderId="119" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="151" fillId="0" borderId="120" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="121" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="0" borderId="122" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="0" borderId="123" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="0" borderId="124" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="0" borderId="125" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="0" borderId="126" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="127" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="128" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="129" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="123" fillId="0" borderId="123" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="164" fillId="0" borderId="130" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="124" fillId="0" borderId="124" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="125" fillId="0" borderId="125" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="126" fillId="0" borderId="126" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="127" fillId="0" borderId="127" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="128" fillId="0" borderId="128" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="129" fillId="0" borderId="129" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="130" fillId="0" borderId="130" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="131" fillId="0" borderId="131" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="132" fillId="0" borderId="132" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="133" fillId="0" borderId="133" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="134" fillId="0" borderId="134" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="135" fillId="0" borderId="135" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="136" fillId="0" borderId="136" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="137" fillId="0" borderId="137" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="138" fillId="0" borderId="138" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="139" fillId="0" borderId="139" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="140" fillId="0" borderId="140" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="141" fillId="0" borderId="141" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="142" fillId="0" borderId="142" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="165" fillId="0" borderId="131" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="143" fillId="0" borderId="143" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="166" fillId="0" borderId="132" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="0" borderId="133" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="134" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="170" fillId="0" borderId="135" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="171" fillId="0" borderId="136" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="172" fillId="0" borderId="137" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="174" fillId="0" borderId="138" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="0" borderId="139" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="140" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="0" borderId="141" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="0" borderId="142" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="0" borderId="143" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="0" borderId="144" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="183" fillId="0" borderId="145" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="184" fillId="0" borderId="146" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="185" fillId="0" borderId="147" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="187" fillId="0" borderId="148" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="0" borderId="149" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="0" borderId="150" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="0" borderId="151" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="0" borderId="152" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="0" borderId="153" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="0" borderId="154" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="0" borderId="155" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="0" borderId="156" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="0" borderId="157" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="158" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="0" borderId="159" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="144" fillId="0" borderId="144" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="145" fillId="0" borderId="145" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="146" fillId="0" borderId="146" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="147" fillId="0" borderId="147" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="148" fillId="0" borderId="148" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="149" fillId="0" borderId="149" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="150" fillId="0" borderId="150" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="151" fillId="0" borderId="151" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="152" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="153" fillId="0" borderId="153" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="154" fillId="0" borderId="154" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="155" fillId="0" borderId="155" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="156" fillId="0" borderId="156" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="157" fillId="0" borderId="157" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="158" fillId="0" borderId="158" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="159" fillId="0" borderId="159" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="160" fillId="0" borderId="160" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="161" fillId="0" borderId="161" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="162" fillId="0" borderId="162" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="202" fillId="0" borderId="160" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="163" fillId="0" borderId="163" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="203" fillId="0" borderId="161" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="164" fillId="0" borderId="164" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="165" fillId="0" borderId="165" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="166" fillId="0" borderId="166" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="167" fillId="0" borderId="167" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="168" fillId="0" borderId="168" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="169" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="170" fillId="0" borderId="170" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="171" fillId="0" borderId="171" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="172" fillId="0" borderId="172" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="173" fillId="0" borderId="173" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="174" fillId="0" borderId="174" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="175" fillId="0" borderId="175" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="176" fillId="0" borderId="176" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="177" fillId="0" borderId="177" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="178" fillId="0" borderId="178" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="179" fillId="0" borderId="179" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="180" fillId="0" borderId="180" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="181" fillId="0" borderId="181" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="182" fillId="0" borderId="182" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="204" fillId="0" borderId="162" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="0" borderId="163" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="0" borderId="164" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="183" fillId="0" borderId="183" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="208" fillId="0" borderId="165" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="184" fillId="0" borderId="184" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="185" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="186" fillId="0" borderId="186" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="187" fillId="0" borderId="187" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="188" fillId="0" borderId="188" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="189" fillId="0" borderId="189" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="190" fillId="0" borderId="190" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="191" fillId="0" borderId="191" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="192" fillId="0" borderId="192" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="193" fillId="0" borderId="193" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="194" fillId="0" borderId="194" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="195" fillId="0" borderId="195" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="196" fillId="0" borderId="196" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="197" fillId="0" borderId="197" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="198" fillId="0" borderId="198" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="199" fillId="0" borderId="199" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="200" fillId="0" borderId="200" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="201" fillId="0" borderId="201" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="202" fillId="0" borderId="202" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="209" fillId="0" borderId="166" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="203" fillId="0" borderId="203" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="210" fillId="0" borderId="167" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="0" borderId="168" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="0" borderId="169" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="214" fillId="0" borderId="170" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="215" fillId="0" borderId="171" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="216" fillId="0" borderId="172" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="218" fillId="0" borderId="173" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="0" borderId="174" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="175" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="0" borderId="176" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="0" borderId="177" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="0" borderId="178" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="0" borderId="179" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="227" fillId="0" borderId="180" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="228" fillId="0" borderId="181" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="229" fillId="0" borderId="182" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="231" fillId="0" borderId="183" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="0" borderId="184" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="0" borderId="185" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="235" fillId="0" borderId="186" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="236" fillId="0" borderId="187" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="188" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="239" fillId="0" borderId="189" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="240" fillId="0" borderId="190" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="241" fillId="0" borderId="191" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="242" fillId="0" borderId="192" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="204" fillId="0" borderId="204" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="205" fillId="0" borderId="205" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="206" fillId="0" borderId="206" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="207" fillId="0" borderId="207" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="208" fillId="0" borderId="208" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="209" fillId="0" borderId="209" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="210" fillId="0" borderId="210" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="211" fillId="0" borderId="211" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="212" fillId="0" borderId="212" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="213" fillId="0" borderId="213" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="214" fillId="0" borderId="214" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="215" fillId="0" borderId="215" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="216" fillId="0" borderId="216" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="217" fillId="0" borderId="217" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="218" fillId="0" borderId="218" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="219" fillId="0" borderId="219" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="220" fillId="0" borderId="220" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="221" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="222" fillId="0" borderId="222" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="244" fillId="0" borderId="193" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="223" fillId="0" borderId="223" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="245" fillId="0" borderId="194" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="224" fillId="0" borderId="224" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="246" fillId="0" borderId="195" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="247" fillId="0" borderId="196" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="249" fillId="0" borderId="197" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="250" fillId="0" borderId="198" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="251" fillId="0" borderId="199" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="252" fillId="0" borderId="200" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="254" fillId="0" borderId="201" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="255" fillId="0" borderId="202" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="256" fillId="0" borderId="203" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="258" fillId="0" borderId="204" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="259" fillId="0" borderId="205" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="260" fillId="0" borderId="206" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="262" fillId="0" borderId="207" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="263" fillId="0" borderId="208" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="264" fillId="0" borderId="209" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="265" fillId="0" borderId="210" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="267" fillId="0" borderId="211" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="268" fillId="0" borderId="212" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="269" fillId="0" borderId="213" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="271" fillId="0" borderId="214" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="272" fillId="0" borderId="215" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="273" fillId="0" borderId="216" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="275" fillId="0" borderId="217" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="276" fillId="0" borderId="218" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="277" fillId="0" borderId="219" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="278" fillId="0" borderId="220" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="225" fillId="0" borderId="225" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="226" fillId="0" borderId="226" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="227" fillId="0" borderId="227" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="228" fillId="0" borderId="228" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="229" fillId="0" borderId="229" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="230" fillId="0" borderId="230" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="231" fillId="0" borderId="231" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="232" fillId="0" borderId="232" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="233" fillId="0" borderId="233" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="234" fillId="0" borderId="234" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="235" fillId="0" borderId="235" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="236" fillId="0" borderId="236" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="237" fillId="0" borderId="237" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="238" fillId="0" borderId="238" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="239" fillId="0" borderId="239" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="240" fillId="0" borderId="240" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="241" fillId="0" borderId="241" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="242" fillId="0" borderId="242" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="243" fillId="0" borderId="243" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="244" fillId="0" borderId="244" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="245" fillId="0" borderId="245" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="246" fillId="0" borderId="246" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="247" fillId="0" borderId="247" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="248" fillId="0" borderId="248" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="280" fillId="0" borderId="221" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="281" fillId="0" borderId="222" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="282" fillId="0" borderId="223" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="283" fillId="0" borderId="224" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="285" fillId="0" borderId="225" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="286" fillId="0" borderId="226" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="287" fillId="0" borderId="227" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="288" fillId="0" borderId="228" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="290" fillId="0" borderId="229" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="291" fillId="0" borderId="230" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="292" fillId="0" borderId="231" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="294" fillId="0" borderId="232" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="295" fillId="0" borderId="233" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="296" fillId="0" borderId="234" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="298" fillId="0" borderId="235" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="299" fillId="0" borderId="236" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="300" fillId="0" borderId="237" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="301" fillId="0" borderId="238" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="303" fillId="0" borderId="239" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="304" fillId="0" borderId="240" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="305" fillId="0" borderId="241" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="242" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="308" fillId="0" borderId="243" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="309" fillId="0" borderId="244" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="311" fillId="0" borderId="245" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="312" fillId="0" borderId="246" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="313" fillId="0" borderId="247" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="314" fillId="0" borderId="248" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="316" fillId="0" borderId="249" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="317" fillId="0" borderId="250" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="318" fillId="0" borderId="251" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="319" fillId="0" borderId="252" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="321" fillId="0" borderId="253" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="322" fillId="0" borderId="254" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="323" fillId="0" borderId="255" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="324" fillId="0" borderId="256" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="326" fillId="0" borderId="257" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="327" fillId="0" borderId="258" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="328" fillId="0" borderId="259" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="330" fillId="0" borderId="260" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="331" fillId="0" borderId="261" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="332" fillId="0" borderId="262" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="334" fillId="0" borderId="263" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="335" fillId="0" borderId="264" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="336" fillId="0" borderId="265" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="337" fillId="0" borderId="266" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="339" fillId="0" borderId="267" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="340" fillId="0" borderId="268" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="341" fillId="0" borderId="269" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="343" fillId="0" borderId="270" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="344" fillId="0" borderId="271" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="345" fillId="0" borderId="272" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="347" fillId="0" borderId="273" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="348" fillId="0" borderId="274" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="349" fillId="0" borderId="275" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="350" fillId="0" borderId="276" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="352" fillId="0" borderId="277" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="353" fillId="0" borderId="278" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="354" fillId="0" borderId="279" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="355" fillId="0" borderId="280" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="357" fillId="0" borderId="281" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="358" fillId="0" borderId="282" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="359" fillId="0" borderId="283" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="360" fillId="0" borderId="284" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="362" fillId="0" borderId="285" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="363" fillId="0" borderId="286" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="364" fillId="0" borderId="287" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="366" fillId="0" borderId="288" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="367" fillId="0" borderId="289" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="368" fillId="0" borderId="290" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="370" fillId="0" borderId="291" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="371" fillId="0" borderId="292" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="372" fillId="0" borderId="293" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="373" fillId="0" borderId="294" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="375" fillId="0" borderId="295" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="376" fillId="0" borderId="296" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="377" fillId="0" borderId="297" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="379" fillId="0" borderId="298" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="380" fillId="0" borderId="299" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="381" fillId="0" borderId="300" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="383" fillId="0" borderId="301" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="384" fillId="0" borderId="302" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="385" fillId="0" borderId="303" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="386" fillId="0" borderId="304" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="388" fillId="0" borderId="305" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="389" fillId="0" borderId="306" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="390" fillId="0" borderId="307" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="391" fillId="0" borderId="308" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="392" fillId="0" borderId="309" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="394" fillId="0" borderId="310" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="395" fillId="0" borderId="311" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="396" fillId="0" borderId="312" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="397" fillId="0" borderId="313" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="398" fillId="0" borderId="314" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="400" fillId="0" borderId="315" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="401" fillId="0" borderId="316" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="402" fillId="0" borderId="317" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="403" fillId="0" borderId="318" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="405" fillId="0" borderId="319" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="406" fillId="0" borderId="320" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="407" fillId="0" borderId="321" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="408" fillId="0" borderId="322" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="410" fillId="0" borderId="323" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="411" fillId="0" borderId="324" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="412" fillId="0" borderId="325" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="413" fillId="0" borderId="326" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="414" fillId="0" borderId="327" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="416" fillId="0" borderId="328" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="417" fillId="0" borderId="329" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="418" fillId="0" borderId="330" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="419" fillId="0" borderId="331" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="421" fillId="0" borderId="332" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="422" fillId="0" borderId="333" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="423" fillId="0" borderId="334" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="424" fillId="0" borderId="335" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="426" fillId="0" borderId="336" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="427" fillId="0" borderId="337" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="428" fillId="0" borderId="338" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="430" fillId="0" borderId="339" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="432" fillId="0" borderId="340" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -3957,321 +5706,321 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="22"/>
+      <c r="H2" s="30"/>
     </row>
     <row r="3">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="34"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="43"/>
     </row>
     <row r="4">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="42">
+      <c r="C4" s="54">
         <v>2.0899999141693115</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="E4" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="49">
+      <c r="F4" s="64">
         <v>2.0699999332427979</v>
       </c>
-      <c r="G4" s="51" t="s">
+      <c r="G4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="54" t="s">
+      <c r="H4" s="71" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="62">
+      <c r="C5" s="82">
         <v>2.0999999046325684</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="66" t="s">
+      <c r="E5" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="69">
+      <c r="F5" s="92">
         <v>1.8200000524520874</v>
       </c>
-      <c r="G5" s="71" t="s">
+      <c r="G5" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="74" t="s">
+      <c r="H5" s="99" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="79" t="s">
+      <c r="B6" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="82">
+      <c r="C6" s="110">
         <v>1.2400000095367432</v>
       </c>
-      <c r="D6" s="84" t="s">
+      <c r="D6" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="86" t="s">
+      <c r="E6" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="89">
+      <c r="F6" s="120">
         <v>1.2300000190734863</v>
       </c>
-      <c r="G6" s="91" t="s">
+      <c r="G6" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="94" t="s">
+      <c r="H6" s="127" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="97" t="s">
+      <c r="A7" s="131" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="99" t="s">
+      <c r="B7" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="102">
+      <c r="C7" s="138">
         <v>1.2300000190734863</v>
       </c>
-      <c r="D7" s="104" t="s">
+      <c r="D7" s="141" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="106" t="s">
+      <c r="E7" s="144" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="109">
+      <c r="F7" s="148">
         <v>1.4199999570846558</v>
       </c>
-      <c r="G7" s="111" t="s">
+      <c r="G7" s="151" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="114" t="s">
+      <c r="H7" s="155" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="115"/>
-      <c r="H8" s="116"/>
+      <c r="A8" s="156"/>
+      <c r="H8" s="157"/>
     </row>
     <row r="9">
-      <c r="A9" s="119" t="s">
+      <c r="A9" s="161" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="120"/>
+      <c r="H9" s="162"/>
     </row>
     <row r="10">
-      <c r="A10" s="123" t="s">
+      <c r="A10" s="166" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="125" t="s">
+      <c r="B10" s="169" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="128">
+      <c r="C10" s="173">
         <v>2.5699999332427979</v>
       </c>
-      <c r="D10" s="130" t="s">
+      <c r="D10" s="176" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="132" t="s">
+      <c r="E10" s="179" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="135">
+      <c r="F10" s="183">
         <v>2.440000057220459</v>
       </c>
-      <c r="G10" s="137" t="s">
+      <c r="G10" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="140" t="s">
+      <c r="H10" s="190" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="143" t="s">
+      <c r="A11" s="194" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="145" t="s">
+      <c r="B11" s="197" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="148">
+      <c r="C11" s="201">
         <v>2.5999999046325684</v>
       </c>
-      <c r="D11" s="150" t="s">
+      <c r="D11" s="204" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="152" t="s">
+      <c r="E11" s="207" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="155">
+      <c r="F11" s="211">
         <v>2.6400001049041748</v>
       </c>
-      <c r="G11" s="157" t="s">
+      <c r="G11" s="214" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="160" t="s">
+      <c r="H11" s="218" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="163" t="s">
+      <c r="A12" s="222" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="165" t="s">
+      <c r="B12" s="225" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="168">
+      <c r="C12" s="229">
         <v>2.059999942779541</v>
       </c>
-      <c r="D12" s="170" t="s">
+      <c r="D12" s="232" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="172" t="s">
+      <c r="E12" s="235" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="175">
+      <c r="F12" s="239">
         <v>2.0899999141693115</v>
       </c>
-      <c r="G12" s="177" t="s">
+      <c r="G12" s="242" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="180" t="s">
+      <c r="H12" s="246" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="183" t="s">
+      <c r="A13" s="250" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="185" t="s">
+      <c r="B13" s="253" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="188">
+      <c r="C13" s="257">
         <v>1.7599999904632568</v>
       </c>
-      <c r="D13" s="190" t="s">
+      <c r="D13" s="260" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="192" t="s">
+      <c r="E13" s="263" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="195">
+      <c r="F13" s="267">
         <v>1.7699999809265137</v>
       </c>
-      <c r="G13" s="197" t="s">
+      <c r="G13" s="270" t="s">
         <v>41</v>
       </c>
-      <c r="H13" s="200" t="s">
+      <c r="H13" s="274" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="203" t="s">
+      <c r="A14" s="278" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="205" t="s">
+      <c r="B14" s="281" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="208">
+      <c r="C14" s="285">
         <v>10.650000095367432</v>
       </c>
-      <c r="D14" s="210" t="s">
+      <c r="D14" s="288" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="212" t="s">
+      <c r="E14" s="291" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="215">
+      <c r="F14" s="295">
         <v>10.014999866485596</v>
       </c>
-      <c r="G14" s="217" t="s">
+      <c r="G14" s="298" t="s">
         <v>47</v>
       </c>
-      <c r="H14" s="220" t="s">
+      <c r="H14" s="302" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="224" t="s">
+      <c r="A15" s="307" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="227" t="s">
+      <c r="B15" s="311" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="231">
+      <c r="C15" s="316">
         <v>64.942153930664063</v>
       </c>
-      <c r="D15" s="234" t="s">
+      <c r="D15" s="320" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="237" t="s">
+      <c r="E15" s="324" t="s">
         <v>52</v>
       </c>
-      <c r="F15" s="241">
+      <c r="F15" s="329">
         <v>62.003942489624024</v>
       </c>
-      <c r="G15" s="244" t="s">
+      <c r="G15" s="333" t="s">
         <v>53</v>
       </c>
-      <c r="H15" s="248" t="s">
+      <c r="H15" s="338" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
+      <c r="A16" s="339" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s">
+      <c r="A17" s="340" t="s">
         <v>56</v>
       </c>
     </row>
